--- a/Examples/Langton Ant/excel/example.xlsx
+++ b/Examples/Langton Ant/excel/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\PycharmProjects\MasterDegree\Examples\Langton Ant\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\Desktop\homework\MasterDegree\Examples\Langton Ant\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B2A662-CCC1-4042-A0D5-9B8DA3B90F2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD1CE12-B431-4516-8D57-87390B202F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14610" yWindow="1755" windowWidth="21600" windowHeight="11835" xr2:uid="{CACAD4C5-5037-44B5-AF02-A22C5524F177}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{CACAD4C5-5037-44B5-AF02-A22C5524F177}"/>
   </bookViews>
   <sheets>
     <sheet name="Layer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>moore</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>visited</t>
+  </si>
+  <si>
+    <t>unvisited</t>
   </si>
 </sst>
 </file>
@@ -50,7 +53,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,7 +74,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,14 +157,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -128,6 +182,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF8F8F8"/>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FFFF0000"/>
       <color rgb="FF586957"/>
       <color rgb="FF080808"/>
@@ -441,277 +497,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73E6186-CDDF-496E-A379-AE8DB6C0E685}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="J24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Examples/Langton Ant/excel/example.xlsx
+++ b/Examples/Langton Ant/excel/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\Desktop\homework\MasterDegree\Examples\Langton Ant\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD1CE12-B431-4516-8D57-87390B202F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B2BC3-8C80-44EB-B07F-2E2D8778DAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{CACAD4C5-5037-44B5-AF02-A22C5524F177}"/>
   </bookViews>
@@ -500,13 +500,16 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
         <v>10</v>
       </c>
     </row>
